--- a/Parties in 'Other' Affiliation.xlsx
+++ b/Parties in 'Other' Affiliation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriele.a\Documents\Git Repository\Manifesto_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{275C7FA2-ACD1-489B-8263-886F7FF74F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC071A-9643-4BE5-85FA-DB9BC6212F63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22572" windowHeight="11556" xr2:uid="{ABCD2307-75B2-44BE-AFE7-DC80D1676AEC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="482">
   <si>
     <t>countryname</t>
   </si>
@@ -1464,13 +1464,25 @@
   </si>
   <si>
     <t>lytvyn bloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,6 +1492,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1507,9 +1528,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,6 +1547,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00371489-DC29-49CA-836E-9ACB82533EEB}" name="Table2" displayName="Table2" ref="I2:L16" totalsRowShown="0">
+  <autoFilter ref="I2:L16" xr:uid="{38753F7A-6B9F-4730-ADD9-BC5B4814B563}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6AAF8AEC-CFAD-4368-94F8-7BBD981C1DEC}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{4C7B6EF7-0598-4A54-869E-FA6B05D013A5}" name="Column2"/>
+    <tableColumn id="5" xr3:uid="{D69AD311-6C0F-43B9-9A9F-46AC3F5A55BF}" name="Column3"/>
+    <tableColumn id="7" xr3:uid="{F1693F9D-2916-496A-B9EF-ABD2E79ED375}" name="Andrea "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6903170-7A5E-4A65-A251-4ACA1FA2607A}">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,9 +1871,13 @@
     <col min="2" max="2" width="71.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,8 +1890,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1865,8 +1908,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1879,8 +1934,20 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1893,8 +1960,20 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1907,8 +1986,20 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1921,8 +2012,20 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1935,8 +2038,20 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1949,8 +2064,20 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" t="s">
+        <v>310</v>
+      </c>
+      <c r="L8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1963,8 +2090,20 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1977,8 +2116,20 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1991,8 +2142,17 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2005,8 +2165,17 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2019,8 +2188,11 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2033,8 +2205,11 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2047,8 +2222,11 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2060,6 +2238,9 @@
       </c>
       <c r="D16" t="s">
         <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -8057,5 +8238,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>